--- a/result/complex/complex2/LengthAngleSafety.xlsx
+++ b/result/complex/complex2/LengthAngleSafety.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         <v>0.03486776433834955</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0006024096385542169</v>
+        <v>0.0008441589660588925</v>
       </c>
       <c r="E3" t="n">
         <v>0.04085813956698361</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7526995774298342</v>
+        <v>0.7901649589302215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02659116710615102</v>
+        <v>0.02149806927100434</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8160305197797705</v>
+        <v>0.8581399114944516</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,29 @@
         <v>0.3890516444645732</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006489832612833065</v>
+        <v>0.008493266987447642</v>
       </c>
       <c r="E5" t="n">
         <v>0.8082971506562711</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DWA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9364989339188737</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02858297303144933</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9498956054774071</v>
       </c>
     </row>
   </sheetData>

--- a/result/complex/complex2/LengthAngleSafety.xlsx
+++ b/result/complex/complex2/LengthAngleSafety.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ConventionalQL</t>
+          <t>ClassicalQL</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/result/complex/complex2/LengthAngleSafety.xlsx
+++ b/result/complex/complex2/LengthAngleSafety.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.03103983049730224</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.0008158923505193939</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04366097002997447</v>
       </c>
     </row>
     <row r="3">
